--- a/testcase/testcase.xlsx
+++ b/testcase/testcase.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="userinfo_check" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="4" r:id="rId1"/>
+    <sheet name="用户查询" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,27 +58,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>expect_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号精确查找用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号模糊查找用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"reqHead":{"functionId":"DWA001003001"},"body":{"deviceSn":"","phoneModel":"","ecgAppVersion":"","provinceName":"","cityName":"","areaName":"","areaList":[],"mobile":"1525718152","nickName":"","name":"","doctorName":"","hospitalName":"","ageMax":"","ageMin":"","beginTime":"","createTime":"2021-12-03 11:16:32","createdAt":"2019-02-02 11:16:32","endTime":"","sex":2,"terminalType":"-1","time":[1549077392113,1612149392113],"times":[],"provinceId":"","cityId":"","areaId":"","pageSize":15,"pageNum":0}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15257181529,武秋伟测试环境用户,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15257181529,武秋伟测试环境用户,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"reqHead":{"functionId":"DWA001003001"},"body":{"deviceSn":"","phoneModel":"","ecgAppVersion":"","provinceName":"","cityName":"","areaName":"","areaList":[],"mobile":"15257181529","nickName":"","name":"","doctorName":"","hospitalName":"","ageMax":"","ageMin":"","beginTime":"","createTime":"2021-12-03 11:16:32","createdAt":"2019-02-02 11:16:32","endTime":"","sex":2,"terminalType":"-1","time":[1549077392113,1612149392113],"times":[],"provinceId":"","cityId":"","areaId":"","pageSize":15,"pageNum":0}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15257181529,武秋伟测试环境用户,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"reqHead":{"functionId":"DWA001003001"},"body":{"deviceSn":"","phoneModel":"","ecgAppVersion":"","provinceName":"","cityName":"","areaName":"","areaList":[],"mobile":"1525718","nickName":"","name":"","doctorName":"","hospitalName":"","ageMax":"","ageMin":"","beginTime":"","createTime":"2021-12-03 11:16:32","createdAt":"2019-02-02 11:16:32","endTime":"","sex":2,"terminalType":"-1","time":[1549077392113,1612149392113],"times":[],"provinceId":"","cityId":"","areaId":"","pageSize":15,"pageNum":0}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile_jingquecheck_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emobile_mohucheck_user</t>
+    <t>{"reqHead":{"functionId":"DWA001003001"},"body":{"deviceSn":"","phoneModel":"","ecgAppVersion":"","provinceName":"","cityName":"","areaName":"","areaList":[],"mobile":"","nickName":"武秋伟测试环境","name":"","doctorName":"","hospitalName":"","ageMax":"","ageMin":"","beginTime":"","createTime":"2021-12-03 11:16:32","createdAt":"2019-02-02 11:16:32","endTime":"","sex":2,"terminalType":"-1","time":[1549077392113,1612149392113],"times":[],"provinceId":"","cityId":"","areaId":"","pageSize":15,"pageNum":0}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称精确查找用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"reqHead":{"functionId":"DWA001003001"},"body":{"deviceSn":"","phoneModel":"","ecgAppVersion":"","provinceName":"","cityName":"","areaName":"","areaList":[],"mobile":"","nickName":"秋伟测试环境","name":"","doctorName":"","hospitalName":"","ageMax":"","ageMin":"","beginTime":"","createTime":"2021-12-03 11:16:32","createdAt":"2019-02-02 11:16:32","endTime":"","sex":2,"terminalType":"-1","time":[1549077392113,1612149392113],"times":[],"provinceId":"","cityId":"","areaId":"","pageSize":15,"pageNum":0}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称模糊查找用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,17 +466,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="37.625" customWidth="1"/>
-    <col min="4" max="4" width="90.625" customWidth="1"/>
+    <col min="4" max="4" width="164.5" customWidth="1"/>
     <col min="5" max="5" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -472,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -483,47 +505,124 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="207" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -532,8 +631,22 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>